--- a/ExternProject/_EXE/ExcelToJson/DataTable/Config_OC_数据表.xlsx
+++ b/ExternProject/_EXE/ExcelToJson/DataTable/Config_OC_数据表.xlsx
@@ -435,7 +435,7 @@
     <t>0,0</t>
   </si>
   <si>
-    <t>&lt;100001 3&gt;,&lt;100002 1&gt;</t>
+    <t>100001,3;100002,1</t>
   </si>
   <si>
     <t>Energy_0_1</t>
@@ -4057,7 +4057,7 @@
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G6" sqref="G6"/>
+      <selection pane="bottomLeft" activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
